--- a/tables/Table_S4_trycycler_assemblies.xlsx
+++ b/tables/Table_S4_trycycler_assemblies.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Polypolish/PAPER/real_read_tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Polypolish_paper/GitHub_repo/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE9912-D515-F544-B6FB-43382642DDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F95FC6F-9FF4-064A-81E2-D54AC2C412B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16100" yWindow="-18880" windowWidth="25360" windowHeight="16260" xr2:uid="{F93A329D-624D-7045-B20F-B5241CBAB250}"/>
+    <workbookView xWindow="10740" yWindow="-18980" windowWidth="25360" windowHeight="17760" xr2:uid="{F93A329D-624D-7045-B20F-B5241CBAB250}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Genome</t>
   </si>
@@ -102,22 +102,66 @@
     <t>Trycycler+Medaka to reference errors</t>
   </si>
   <si>
-    <t>small plasmid didn't show up in the assembly, so I manually added it at the end</t>
-  </si>
-  <si>
-    <t>none of the small plasmids showed up in the assembly, so I manually added them at the end</t>
-  </si>
-  <si>
-    <t>the medium (58 kbp) plasmid didn't show up in the assembly, so I manually added it at the end</t>
-  </si>
-  <si>
-    <t>two small plasmids didn't cluster well, so I manually added them at the end</t>
-  </si>
-  <si>
-    <t>two small plasmids didn't show up in the assembly, so I manually added them at the end</t>
-  </si>
-  <si>
-    <t>due to very low read depth, I only had four contigs to make the chromosome, all from Flye, hence the much higher error count</t>
+    <t>Small plasmid didn't show up in the assembly, so I manually added it at the end.</t>
+  </si>
+  <si>
+    <t>None of the small plasmids showed up in the assembly, so I manually added them at the end.</t>
+  </si>
+  <si>
+    <t>Two small plasmids didn't show up in the assembly, so I manually added them at the end.</t>
+  </si>
+  <si>
+    <t>Due to very low read depth, I only had four contigs to make the chromosome, all from Flye, hence the much higher error count.</t>
+  </si>
+  <si>
+    <t>The medium (58 kbp) plasmid didn't show up in the assembly, so I manually added it at the end.</t>
+  </si>
+  <si>
+    <t>Two small plasmids didn't cluster well, so I manually added them at the end.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table S4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trycycler assembly and Medaka polishing details for each of the real-read sets. In five cases, plasmids did not appear in the Trycycler assemblies due to low read depth, so they were added manually from the Illumina assembly graph to ensure that reads had a target during polishing (only chromosomes were used to determine polisher accuracy). The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Klebsiella oxytoca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MSB1_2C b assembly was excluded from subsequent analyses due to its low identity. Identity was assessed by aligning to reference sequences prepared in a previous study (doi:10.1099/mgen.0.000631).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -125,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +195,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,36 +235,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,10 +343,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,925 +642,962 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65ACCCB-5B6A-9048-8A93-248012751518}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="7"/>
-    <col min="9" max="9" width="10.83203125" style="9"/>
-    <col min="10" max="10" width="10.83203125" style="5"/>
-    <col min="11" max="11" width="10.83203125" style="7"/>
-    <col min="12" max="12" width="10.83203125" style="9"/>
+    <col min="7" max="7" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+    <col min="10" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="10.83203125" style="4"/>
+    <col min="12" max="12" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="107" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="12">
         <v>707.6</v>
       </c>
-      <c r="D2" s="5">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D3" s="13">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12">
         <v>85.3</v>
       </c>
-      <c r="G2" s="5">
+      <c r="F3" s="11"/>
+      <c r="G3" s="13">
         <v>246</v>
       </c>
-      <c r="H2" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="H3" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="I3" s="15">
         <v>0.997</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J3" s="13">
         <v>75</v>
       </c>
-      <c r="K2" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L2" s="9">
+      <c r="K3" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="L3" s="15">
         <v>0.997</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="17">
         <v>24</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="18">
         <v>15</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="17">
         <v>20.100000000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="F4" s="16"/>
+      <c r="G4" s="18">
         <v>414</v>
       </c>
-      <c r="H3" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="H4" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I4" s="20">
         <v>0.995</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="18">
         <v>242</v>
       </c>
-      <c r="K3" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="K4" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L4" s="20">
         <v>0.997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="17">
         <v>263.39999999999998</v>
       </c>
-      <c r="D4" s="5">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D5" s="18">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17">
         <v>67.5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="18">
         <v>194</v>
       </c>
-      <c r="H4" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H5" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I5" s="20">
         <v>0.997</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J5" s="18">
         <v>36</v>
       </c>
-      <c r="K4" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="K5" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L5" s="20">
         <v>0.997</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="17">
         <v>199.7</v>
       </c>
-      <c r="D5" s="5">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D6" s="18">
+        <v>25</v>
+      </c>
+      <c r="E6" s="17">
         <v>62.5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="F6" s="16"/>
+      <c r="G6" s="18">
         <v>336</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H6" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I6" s="20">
         <v>0.996</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="18">
         <v>96</v>
       </c>
-      <c r="K5" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="K6" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L6" s="20">
         <v>0.997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="17">
         <v>333.1</v>
       </c>
-      <c r="D6" s="5">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D7" s="18">
+        <v>25</v>
+      </c>
+      <c r="E7" s="17">
         <v>71.7</v>
       </c>
-      <c r="G6" s="5">
+      <c r="F7" s="16"/>
+      <c r="G7" s="18">
         <v>573</v>
       </c>
-      <c r="H6" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H7" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I7" s="20">
         <v>0.996</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="18">
         <v>145</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K7" s="19">
         <v>0.98</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="20">
         <v>0.998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="17">
         <v>96.4</v>
       </c>
-      <c r="D7" s="5">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D8" s="18">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17">
         <v>49.3</v>
       </c>
-      <c r="G7" s="5">
+      <c r="F8" s="16"/>
+      <c r="G8" s="18">
         <v>368</v>
       </c>
-      <c r="H7" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H8" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I8" s="20">
         <v>0.996</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="18">
         <v>124</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K8" s="19">
         <v>0.98</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="20">
         <v>0.998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="17">
         <v>203.8</v>
       </c>
-      <c r="D8" s="5">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D9" s="18">
+        <v>25</v>
+      </c>
+      <c r="E9" s="17">
         <v>62.8</v>
       </c>
-      <c r="G8" s="5">
+      <c r="F9" s="16"/>
+      <c r="G9" s="18">
         <v>297</v>
       </c>
-      <c r="H8" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H9" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I9" s="20">
         <v>0.996</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="18">
         <v>84</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K9" s="19">
         <v>0.98</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="20">
         <v>0.997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="17">
         <v>347.9</v>
       </c>
-      <c r="D9" s="5">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D10" s="18">
+        <v>25</v>
+      </c>
+      <c r="E10" s="17">
         <v>72.5</v>
       </c>
-      <c r="G9" s="5">
+      <c r="F10" s="16"/>
+      <c r="G10" s="18">
         <v>490</v>
       </c>
-      <c r="H9" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="H10" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I10" s="20">
         <v>0.996</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J10" s="18">
         <v>124</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K10" s="19">
         <v>0.98</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L10" s="20">
         <v>0.998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="17">
         <v>179.1</v>
       </c>
-      <c r="D10" s="5">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D11" s="18">
+        <v>25</v>
+      </c>
+      <c r="E11" s="17">
         <v>60.5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="F11" s="16"/>
+      <c r="G11" s="18">
         <v>886</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="19">
         <v>0.96</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="20">
         <v>0.995</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="18">
         <v>479</v>
       </c>
-      <c r="K10" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="K11" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L11" s="20">
         <v>0.996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="17">
         <v>27.6</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="18">
         <v>15</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="17">
         <v>21.6</v>
       </c>
-      <c r="G11" s="5">
+      <c r="F12" s="16"/>
+      <c r="G12" s="18">
         <v>1308</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H12" s="19">
         <v>0.96</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I12" s="20">
         <v>0.99399999999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="18">
         <v>968</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K12" s="19">
         <v>0.96</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L12" s="20">
         <v>0.995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="17">
         <v>119.6</v>
       </c>
-      <c r="D12" s="5">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D13" s="18">
+        <v>25</v>
+      </c>
+      <c r="E13" s="17">
         <v>53.2</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="18">
         <v>1197</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="19">
         <v>0.96</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I13" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J13" s="18">
         <v>955</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K13" s="19">
         <v>0.96</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L13" s="20">
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="17">
         <v>187.8</v>
       </c>
-      <c r="D13" s="5">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D14" s="18">
+        <v>25</v>
+      </c>
+      <c r="E14" s="17">
         <v>61.4</v>
       </c>
-      <c r="G13" s="5">
+      <c r="F14" s="16"/>
+      <c r="G14" s="18">
         <v>1317</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="19">
         <v>0.96</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J14" s="18">
         <v>922</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K14" s="19">
         <v>0.96</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="20">
         <v>0.995</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="17">
         <v>865.5</v>
       </c>
-      <c r="D14" s="5">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D15" s="18">
+        <v>25</v>
+      </c>
+      <c r="E15" s="17">
         <v>88.9</v>
       </c>
-      <c r="G14" s="5">
+      <c r="F15" s="16"/>
+      <c r="G15" s="18">
         <v>231</v>
       </c>
-      <c r="H14" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H15" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I15" s="20">
         <v>0.995</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="18">
         <v>54</v>
       </c>
-      <c r="K14" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="K15" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L15" s="20">
         <v>0.997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="17">
         <v>906.4</v>
       </c>
-      <c r="D15" s="5">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D16" s="18">
+        <v>25</v>
+      </c>
+      <c r="E16" s="17">
         <v>89.8</v>
       </c>
-      <c r="G15" s="5">
+      <c r="F16" s="16"/>
+      <c r="G16" s="18">
         <v>137</v>
       </c>
-      <c r="H15" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="H16" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I16" s="20">
         <v>0.997</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="18">
         <v>36</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K16" s="19">
         <v>0.98</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L16" s="20">
         <v>0.998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="17">
         <v>613.4</v>
       </c>
-      <c r="D16" s="5">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D17" s="18">
+        <v>25</v>
+      </c>
+      <c r="E17" s="17">
         <v>82.7</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="18">
+        <v>104</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0.996</v>
+      </c>
+      <c r="J17" s="18">
+        <v>21</v>
+      </c>
+      <c r="K17" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="17">
+        <v>814.5</v>
+      </c>
+      <c r="D18" s="18">
+        <v>25</v>
+      </c>
+      <c r="E18" s="17">
+        <v>87.8</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="18">
+        <v>194</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0.995</v>
+      </c>
+      <c r="J18" s="18">
+        <v>53</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="17">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="D19" s="18">
+        <v>25</v>
+      </c>
+      <c r="E19" s="17">
+        <v>68.3</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="18">
+        <v>674</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J19" s="18">
+        <v>148</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="22">
+        <v>10.4</v>
+      </c>
+      <c r="D20" s="23">
+        <v>10</v>
+      </c>
+      <c r="E20" s="22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="23">
+        <v>8754</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J20" s="23">
+        <v>7788</v>
+      </c>
+      <c r="K20" s="24">
+        <v>0.66</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="17">
+        <v>78.5</v>
+      </c>
+      <c r="D21" s="18">
+        <v>25</v>
+      </c>
+      <c r="E21" s="17">
+        <v>45.6</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="5">
-        <v>104</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="G21" s="18">
+        <v>362</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0.995</v>
+      </c>
+      <c r="J21" s="18">
+        <v>88</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="L21" s="20">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="17">
+        <v>133</v>
+      </c>
+      <c r="D22" s="18">
+        <v>25</v>
+      </c>
+      <c r="E22" s="17">
+        <v>55.1</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="18">
+        <v>583</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J22" s="18">
+        <v>158</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="17">
+        <v>193.8</v>
+      </c>
+      <c r="D23" s="18">
+        <v>25</v>
+      </c>
+      <c r="E23" s="17">
+        <v>61.9</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18">
+        <v>704</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J23" s="18">
+        <v>158</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L23" s="20">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="17">
+        <v>48.7</v>
+      </c>
+      <c r="D24" s="18">
+        <v>25</v>
+      </c>
+      <c r="E24" s="17">
+        <v>37</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="18">
+        <v>492</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="I24" s="20">
+        <v>0.995</v>
+      </c>
+      <c r="J24" s="18">
+        <v>171</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L24" s="20">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="17">
+        <v>237.2</v>
+      </c>
+      <c r="D25" s="18">
+        <v>25</v>
+      </c>
+      <c r="E25" s="17">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="18">
+        <v>379</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="I25" s="20">
         <v>0.996</v>
       </c>
-      <c r="J16" s="5">
-        <v>21</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="J25" s="18">
+        <v>70</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="L25" s="20">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3">
-        <v>814.5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3">
-        <v>87.8</v>
-      </c>
-      <c r="G17" s="5">
-        <v>194</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.995</v>
-      </c>
-      <c r="J17" s="5">
-        <v>53</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="C26" s="27">
+        <v>166.3</v>
+      </c>
+      <c r="D26" s="28">
+        <v>25</v>
+      </c>
+      <c r="E26" s="27">
+        <v>59.2</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="28">
+        <v>546</v>
+      </c>
+      <c r="H26" s="29">
+        <v>0.96</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J26" s="28">
+        <v>126</v>
+      </c>
+      <c r="K26" s="29">
         <v>0.98</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L26" s="30">
         <v>0.998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3">
-        <v>275.10000000000002</v>
-      </c>
-      <c r="D18" s="5">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3">
-        <v>68.3</v>
-      </c>
-      <c r="G18" s="5">
-        <v>674</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="J18" s="5">
-        <v>148</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11">
-        <v>10.4</v>
-      </c>
-      <c r="D19" s="12">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="12">
-        <v>8754</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="J19" s="12">
-        <v>7788</v>
-      </c>
-      <c r="K19" s="13">
-        <v>0.66</v>
-      </c>
-      <c r="L19" s="14">
-        <v>0.91900000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3">
-        <v>78.5</v>
-      </c>
-      <c r="D20" s="5">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45.6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="5">
-        <v>362</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0.995</v>
-      </c>
-      <c r="J20" s="5">
-        <v>88</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3">
-        <v>133</v>
-      </c>
-      <c r="D21" s="5">
-        <v>25</v>
-      </c>
-      <c r="E21" s="3">
-        <v>55.1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>583</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="J21" s="5">
-        <v>158</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3">
-        <v>193.8</v>
-      </c>
-      <c r="D22" s="5">
-        <v>25</v>
-      </c>
-      <c r="E22" s="3">
-        <v>61.9</v>
-      </c>
-      <c r="G22" s="5">
-        <v>704</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="J22" s="5">
-        <v>158</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>48.7</v>
-      </c>
-      <c r="D23" s="5">
-        <v>25</v>
-      </c>
-      <c r="E23" s="3">
-        <v>37</v>
-      </c>
-      <c r="G23" s="5">
-        <v>492</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0.995</v>
-      </c>
-      <c r="J23" s="5">
-        <v>171</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3">
-        <v>237.2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>25</v>
-      </c>
-      <c r="E24" s="3">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="5">
-        <v>379</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.996</v>
-      </c>
-      <c r="J24" s="5">
-        <v>70</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3">
-        <v>166.3</v>
-      </c>
-      <c r="D25" s="5">
-        <v>25</v>
-      </c>
-      <c r="E25" s="3">
-        <v>59.2</v>
-      </c>
-      <c r="G25" s="5">
-        <v>546</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="J25" s="5">
-        <v>126</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0.998</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>